--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="25872" windowHeight="11052"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="substitute fuels for coal" sheetId="5" r:id="rId4"/>
     <sheet name="CtIEPpUESoS" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
   <si>
     <t>Source:</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Cost per Unit Energy (2012$/BTU)</t>
+  </si>
+  <si>
+    <t>substitute other fuels for natural gas</t>
   </si>
 </sst>
 </file>
@@ -352,7 +355,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0E+00"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -597,7 +600,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="6"/>
@@ -960,17 +963,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="81.6640625" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,217 +981,217 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>2005</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <v>0.98699999999999999</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36">
         <v>1.0549999999999999</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
         <v>102</v>
       </c>
@@ -1228,20 +1231,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1249,22 +1252,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>0.36555607695917408</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>0.49267566948958574</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>0.61937990072656646</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1347,25 +1350,25 @@
         <v>0.49253721572510872</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f>2.93*10^-4</f>
         <v>2.9300000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <f>D14*A17</f>
         <v>1.4431340420745687E-4</v>
@@ -1385,13 +1388,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,11 +1615,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1768,14 +1771,14 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,27 +1817,36 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="30">
+        <f>'cogen and WHR + eqpt stds'!B30*About!$A$56</f>
+        <v>5.7135774218154072E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B6" s="30">
         <f>'substitute fuels for coal'!A26*About!$A$56</f>
         <v>4.6924335713591759E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="30">
-        <f>'cogen and WHR + eqpt stds'!B30*About!$A$56</f>
-        <v>5.7135774218154072E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="30">
+        <f>B6</f>
+        <v>4.6924335713591759E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>63</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>0</v>
       </c>
     </row>
